--- a/upload/import_siswa.xlsx
+++ b/upload/import_siswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\websmkmuda\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -104,10 +104,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,11 +395,12 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -406,10 +411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
